--- a/data/pca/factorExposure/factorExposure_2014-12-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0151660799346754</v>
+        <v>0.01178062548954671</v>
       </c>
       <c r="C2">
-        <v>0.03243710454528513</v>
+        <v>-0.05325660742712507</v>
       </c>
       <c r="D2">
-        <v>0.1337927135536852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06763383763584339</v>
+      </c>
+      <c r="E2">
+        <v>0.1014239258471707</v>
+      </c>
+      <c r="F2">
+        <v>-0.1494801994636282</v>
+      </c>
+      <c r="G2">
+        <v>-0.05799127685518716</v>
+      </c>
+      <c r="H2">
+        <v>0.0498744165628076</v>
+      </c>
+      <c r="I2">
+        <v>-0.03820327468311754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04279419078229658</v>
+        <v>0.0201203145054964</v>
       </c>
       <c r="C4">
-        <v>0.1194805668204562</v>
+        <v>-0.1429088087151127</v>
       </c>
       <c r="D4">
-        <v>0.09929717530776325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02893553168574332</v>
+      </c>
+      <c r="E4">
+        <v>0.07738684028375196</v>
+      </c>
+      <c r="F4">
+        <v>-0.1053556851172814</v>
+      </c>
+      <c r="G4">
+        <v>0.05965484473241125</v>
+      </c>
+      <c r="H4">
+        <v>-0.02100734445939307</v>
+      </c>
+      <c r="I4">
+        <v>-0.07928234614199753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02030673994674438</v>
+        <v>0.02950162899543403</v>
       </c>
       <c r="C6">
-        <v>0.0468373993814138</v>
+        <v>-0.05724109430031406</v>
       </c>
       <c r="D6">
-        <v>0.08207260061707887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0381518400173248</v>
+      </c>
+      <c r="E6">
+        <v>0.08738272326739853</v>
+      </c>
+      <c r="F6">
+        <v>-0.05257239021334015</v>
+      </c>
+      <c r="G6">
+        <v>-0.04022970781857779</v>
+      </c>
+      <c r="H6">
+        <v>-0.04189519957118846</v>
+      </c>
+      <c r="I6">
+        <v>-0.0220475118023815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.008380754548239826</v>
+        <v>0.0060999614558355</v>
       </c>
       <c r="C7">
-        <v>0.03705878848011514</v>
+        <v>-0.05437698914652897</v>
       </c>
       <c r="D7">
-        <v>0.06402880737504237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03442049348077934</v>
+      </c>
+      <c r="E7">
+        <v>0.07167312547847819</v>
+      </c>
+      <c r="F7">
+        <v>-0.009468179277086887</v>
+      </c>
+      <c r="G7">
+        <v>0.01783831651098926</v>
+      </c>
+      <c r="H7">
+        <v>-0.04401603150365906</v>
+      </c>
+      <c r="I7">
+        <v>-0.08081578812798425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.003517423849843746</v>
+        <v>-0.007015062768595934</v>
       </c>
       <c r="C8">
-        <v>0.05009746409431335</v>
+        <v>-0.05930256031886243</v>
       </c>
       <c r="D8">
-        <v>0.08059941458122581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.01596904163065127</v>
+      </c>
+      <c r="E8">
+        <v>0.06674616854270858</v>
+      </c>
+      <c r="F8">
+        <v>-0.08301836318665834</v>
+      </c>
+      <c r="G8">
+        <v>0.02817561042024166</v>
+      </c>
+      <c r="H8">
+        <v>0.0516451087721773</v>
+      </c>
+      <c r="I8">
+        <v>-0.02526286033064958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02507185130817367</v>
+        <v>0.01159354699197393</v>
       </c>
       <c r="C9">
-        <v>0.09714105492635344</v>
+        <v>-0.1139650094584566</v>
       </c>
       <c r="D9">
-        <v>0.08621256734148329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.02843246034255412</v>
+      </c>
+      <c r="E9">
+        <v>0.06550364157192905</v>
+      </c>
+      <c r="F9">
+        <v>-0.06967585303130798</v>
+      </c>
+      <c r="G9">
+        <v>0.007786599585497248</v>
+      </c>
+      <c r="H9">
+        <v>-0.0395265309098902</v>
+      </c>
+      <c r="I9">
+        <v>-0.08252422469935697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.2214444814852168</v>
+        <v>0.2428135290650525</v>
       </c>
       <c r="C10">
-        <v>-0.1121191883327114</v>
+        <v>0.08289475506983809</v>
       </c>
       <c r="D10">
-        <v>-0.04316082206805155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01578586061070988</v>
+      </c>
+      <c r="E10">
+        <v>-0.02253338007124328</v>
+      </c>
+      <c r="F10">
+        <v>-0.01024333544173829</v>
+      </c>
+      <c r="G10">
+        <v>0.006254193336915099</v>
+      </c>
+      <c r="H10">
+        <v>-0.03204878341599819</v>
+      </c>
+      <c r="I10">
+        <v>-0.03366964629350366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.009399272904611119</v>
+        <v>0.01192902923075321</v>
       </c>
       <c r="C11">
-        <v>0.04266640001892633</v>
+        <v>-0.06619273602857641</v>
       </c>
       <c r="D11">
-        <v>0.04725554916418911</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.01557184913445833</v>
+      </c>
+      <c r="E11">
+        <v>0.05460362695791476</v>
+      </c>
+      <c r="F11">
+        <v>-0.004100525031860864</v>
+      </c>
+      <c r="G11">
+        <v>0.01403140541490762</v>
+      </c>
+      <c r="H11">
+        <v>-0.03323502277790624</v>
+      </c>
+      <c r="I11">
+        <v>-0.03989022343941393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01297500406514034</v>
+        <v>0.01392266624313543</v>
       </c>
       <c r="C12">
-        <v>0.04444655828636987</v>
+        <v>-0.05591808432444223</v>
       </c>
       <c r="D12">
-        <v>0.04880216098084705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02179415218535457</v>
+      </c>
+      <c r="E12">
+        <v>0.04137396316279269</v>
+      </c>
+      <c r="F12">
+        <v>0.006193737709349206</v>
+      </c>
+      <c r="G12">
+        <v>-0.01354498293999287</v>
+      </c>
+      <c r="H12">
+        <v>-0.02990823644018721</v>
+      </c>
+      <c r="I12">
+        <v>-0.0458835470440016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01653335527931625</v>
+        <v>0.004328830912460104</v>
       </c>
       <c r="C13">
-        <v>0.05652772003306551</v>
+        <v>-0.09284824123129357</v>
       </c>
       <c r="D13">
-        <v>0.1274353684796099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.07724739011417628</v>
+      </c>
+      <c r="E13">
+        <v>0.1212544317994853</v>
+      </c>
+      <c r="F13">
+        <v>-0.04868608875488558</v>
+      </c>
+      <c r="G13">
+        <v>-0.1055185668203107</v>
+      </c>
+      <c r="H13">
+        <v>-0.03805264605264704</v>
+      </c>
+      <c r="I13">
+        <v>-0.0887218303399461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004272946410861941</v>
+        <v>0.005618279063460337</v>
       </c>
       <c r="C14">
-        <v>0.02165241875267438</v>
+        <v>-0.04923256219027217</v>
       </c>
       <c r="D14">
-        <v>0.05829816539217288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02052340845244383</v>
+      </c>
+      <c r="E14">
+        <v>0.1045167977900253</v>
+      </c>
+      <c r="F14">
+        <v>-0.02069874054908271</v>
+      </c>
+      <c r="G14">
+        <v>-0.03541808402319655</v>
+      </c>
+      <c r="H14">
+        <v>-0.06685805686851425</v>
+      </c>
+      <c r="I14">
+        <v>-0.1377005485020488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001378332603250578</v>
+        <v>-0.004225395951762</v>
       </c>
       <c r="C15">
-        <v>0.02599314613880704</v>
+        <v>-0.0485954272156105</v>
       </c>
       <c r="D15">
-        <v>0.07624223998928419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03172357224412518</v>
+      </c>
+      <c r="E15">
+        <v>0.07641171152479918</v>
+      </c>
+      <c r="F15">
+        <v>-0.01802567817379497</v>
+      </c>
+      <c r="G15">
+        <v>0.008127324374959862</v>
+      </c>
+      <c r="H15">
+        <v>-0.006192790769608514</v>
+      </c>
+      <c r="I15">
+        <v>-0.05549947820979214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.008690878023427131</v>
+        <v>0.01061320792318843</v>
       </c>
       <c r="C16">
-        <v>0.03915183420318262</v>
+        <v>-0.05645972534514665</v>
       </c>
       <c r="D16">
-        <v>0.04027503773482981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.01909589958703897</v>
+      </c>
+      <c r="E16">
+        <v>0.04043596952988625</v>
+      </c>
+      <c r="F16">
+        <v>0.0006845623079705176</v>
+      </c>
+      <c r="G16">
+        <v>-0.001393653727607458</v>
+      </c>
+      <c r="H16">
+        <v>-0.03842945240261703</v>
+      </c>
+      <c r="I16">
+        <v>-0.03847798733571181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01085164772564836</v>
+        <v>0.004352451820325498</v>
       </c>
       <c r="C19">
-        <v>0.01529439244869416</v>
+        <v>-0.01218900126475296</v>
       </c>
       <c r="D19">
-        <v>0.02413362003659891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0004752275225549707</v>
+      </c>
+      <c r="E19">
+        <v>0.01041842579850103</v>
+      </c>
+      <c r="F19">
+        <v>0.009123967266731448</v>
+      </c>
+      <c r="G19">
+        <v>-0.004844318857807666</v>
+      </c>
+      <c r="H19">
+        <v>0.02416454503081919</v>
+      </c>
+      <c r="I19">
+        <v>-0.02630351032609355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.001906838886044752</v>
+        <v>0.002226412697690386</v>
       </c>
       <c r="C20">
-        <v>0.04097676680997028</v>
+        <v>-0.06412670524623904</v>
       </c>
       <c r="D20">
-        <v>0.06406645593694291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0348144384548562</v>
+      </c>
+      <c r="E20">
+        <v>0.06706979429341019</v>
+      </c>
+      <c r="F20">
+        <v>-0.008826747932152594</v>
+      </c>
+      <c r="G20">
+        <v>0.01669425204086228</v>
+      </c>
+      <c r="H20">
+        <v>-0.06387447688247562</v>
+      </c>
+      <c r="I20">
+        <v>-0.0630045530126373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01868196722463452</v>
+        <v>0.0104751184149695</v>
       </c>
       <c r="C21">
-        <v>0.05979140188360259</v>
+        <v>-0.07051836867534333</v>
       </c>
       <c r="D21">
-        <v>0.08777756961915295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02713098842840364</v>
+      </c>
+      <c r="E21">
+        <v>0.08288850802547239</v>
+      </c>
+      <c r="F21">
+        <v>-0.06765052947138829</v>
+      </c>
+      <c r="G21">
+        <v>-0.104179949662476</v>
+      </c>
+      <c r="H21">
+        <v>-0.01017088837741695</v>
+      </c>
+      <c r="I21">
+        <v>-0.1809244188084779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001965273454661063</v>
+        <v>-0.01081469480489925</v>
       </c>
       <c r="C22">
-        <v>0.06355423061704833</v>
+        <v>-0.1011955422424441</v>
       </c>
       <c r="D22">
-        <v>0.2053627602578888</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1453389187406418</v>
+      </c>
+      <c r="E22">
+        <v>0.1843077439959341</v>
+      </c>
+      <c r="F22">
+        <v>-0.2885765106901146</v>
+      </c>
+      <c r="G22">
+        <v>0.1297009647202666</v>
+      </c>
+      <c r="H22">
+        <v>0.2391941275211541</v>
+      </c>
+      <c r="I22">
+        <v>0.4212205515578675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001997228201225498</v>
+        <v>-0.007513476061304787</v>
       </c>
       <c r="C23">
-        <v>0.06485494240975741</v>
+        <v>-0.1042167175168329</v>
       </c>
       <c r="D23">
-        <v>0.2049528173376584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1478869726697487</v>
+      </c>
+      <c r="E23">
+        <v>0.1816952584865096</v>
+      </c>
+      <c r="F23">
+        <v>-0.2835419680537546</v>
+      </c>
+      <c r="G23">
+        <v>0.1230468150688716</v>
+      </c>
+      <c r="H23">
+        <v>0.2287333797599501</v>
+      </c>
+      <c r="I23">
+        <v>0.3941762317434833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01256909234478801</v>
+        <v>0.01288488595446831</v>
       </c>
       <c r="C24">
-        <v>0.06283455108453574</v>
+        <v>-0.07442068138172016</v>
       </c>
       <c r="D24">
-        <v>0.05395333096885273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01096300512281392</v>
+      </c>
+      <c r="E24">
+        <v>0.05505794964974024</v>
+      </c>
+      <c r="F24">
+        <v>-0.0002027755000937491</v>
+      </c>
+      <c r="G24">
+        <v>0.004078201229637638</v>
+      </c>
+      <c r="H24">
+        <v>-0.02807735520344182</v>
+      </c>
+      <c r="I24">
+        <v>-0.05753153645900581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01586726999135348</v>
+        <v>0.01753081592405651</v>
       </c>
       <c r="C25">
-        <v>0.05408216471363342</v>
+        <v>-0.06775496912626455</v>
       </c>
       <c r="D25">
-        <v>0.04384962161246467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01431694295995626</v>
+      </c>
+      <c r="E25">
+        <v>0.04136570431066888</v>
+      </c>
+      <c r="F25">
+        <v>-0.003577644841363894</v>
+      </c>
+      <c r="G25">
+        <v>0.009289582881725458</v>
+      </c>
+      <c r="H25">
+        <v>-0.03476848810221608</v>
+      </c>
+      <c r="I25">
+        <v>-0.03669122198015799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.00664624382534372</v>
+        <v>0.01707492412257138</v>
       </c>
       <c r="C26">
-        <v>0.03055025771441306</v>
+        <v>-0.0502173170895418</v>
       </c>
       <c r="D26">
-        <v>0.05221384718983518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.006052226497066829</v>
+      </c>
+      <c r="E26">
+        <v>0.08280305117174741</v>
+      </c>
+      <c r="F26">
+        <v>-0.03442391811134854</v>
+      </c>
+      <c r="G26">
+        <v>-0.006568238614643695</v>
+      </c>
+      <c r="H26">
+        <v>-0.03210833753443561</v>
+      </c>
+      <c r="I26">
+        <v>-0.1256858131615212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.300365548004372</v>
+        <v>0.3116073873686322</v>
       </c>
       <c r="C28">
-        <v>-0.1379798871629989</v>
+        <v>0.103858830773474</v>
       </c>
       <c r="D28">
-        <v>-0.04676776710274884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01009215276677553</v>
+      </c>
+      <c r="E28">
+        <v>-0.042488424819259</v>
+      </c>
+      <c r="F28">
+        <v>-0.06482314975116363</v>
+      </c>
+      <c r="G28">
+        <v>0.03559867743530812</v>
+      </c>
+      <c r="H28">
+        <v>0.02627828614696927</v>
+      </c>
+      <c r="I28">
+        <v>-0.06669376317493125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.004584273294589071</v>
+        <v>0.004696011899819798</v>
       </c>
       <c r="C29">
-        <v>0.02966998589795735</v>
+        <v>-0.05861753959268723</v>
       </c>
       <c r="D29">
-        <v>0.06903155380534283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0313399831768084</v>
+      </c>
+      <c r="E29">
+        <v>0.1129957960666778</v>
+      </c>
+      <c r="F29">
+        <v>-0.02422126160935194</v>
+      </c>
+      <c r="G29">
+        <v>-0.0544588230171178</v>
+      </c>
+      <c r="H29">
+        <v>-0.09601023170086596</v>
+      </c>
+      <c r="I29">
+        <v>-0.1719706755980824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02677838638197872</v>
+        <v>0.02035799827172458</v>
       </c>
       <c r="C30">
-        <v>0.09561219457702416</v>
+        <v>-0.1204937518380406</v>
       </c>
       <c r="D30">
-        <v>0.1391391118310735</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.04751533072657031</v>
+      </c>
+      <c r="E30">
+        <v>0.119862427269799</v>
+      </c>
+      <c r="F30">
+        <v>-0.05589802019485386</v>
+      </c>
+      <c r="G30">
+        <v>0.01841808837020944</v>
+      </c>
+      <c r="H30">
+        <v>-0.003939991801607464</v>
+      </c>
+      <c r="I30">
+        <v>-0.02646476703803924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01479198999773975</v>
+        <v>0.01043770876158907</v>
       </c>
       <c r="C31">
-        <v>0.08852790308632739</v>
+        <v>-0.09797769359196955</v>
       </c>
       <c r="D31">
-        <v>0.0317950203590809</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00268717468085978</v>
+      </c>
+      <c r="E31">
+        <v>0.02768910913435114</v>
+      </c>
+      <c r="F31">
+        <v>-0.002224327175612808</v>
+      </c>
+      <c r="G31">
+        <v>0.0002100996400956473</v>
+      </c>
+      <c r="H31">
+        <v>0.0179484675788283</v>
+      </c>
+      <c r="I31">
+        <v>-0.05932214358611664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02444899205400573</v>
+        <v>0.01819414751362846</v>
       </c>
       <c r="C32">
-        <v>0.05135947534268398</v>
+        <v>-0.06145932829495562</v>
       </c>
       <c r="D32">
-        <v>0.09974167171102707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02844142849135252</v>
+      </c>
+      <c r="E32">
+        <v>0.06608640335987792</v>
+      </c>
+      <c r="F32">
+        <v>-0.1128852180490183</v>
+      </c>
+      <c r="G32">
+        <v>-0.04005038776807876</v>
+      </c>
+      <c r="H32">
+        <v>-0.01265268242661895</v>
+      </c>
+      <c r="I32">
+        <v>-0.08760360310738122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006685239670021333</v>
+        <v>0.009559629185799001</v>
       </c>
       <c r="C33">
-        <v>0.06127626844246816</v>
+        <v>-0.08929631576534312</v>
       </c>
       <c r="D33">
-        <v>0.08393251028124538</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04053150313002088</v>
+      </c>
+      <c r="E33">
+        <v>0.08628207286366567</v>
+      </c>
+      <c r="F33">
+        <v>-0.01505577268485758</v>
+      </c>
+      <c r="G33">
+        <v>-0.002122461660381866</v>
+      </c>
+      <c r="H33">
+        <v>-0.031575477011887</v>
+      </c>
+      <c r="I33">
+        <v>-0.06045344232674634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01007237094701422</v>
+        <v>0.0127104493326174</v>
       </c>
       <c r="C34">
-        <v>0.05431990470910965</v>
+        <v>-0.05824984985824887</v>
       </c>
       <c r="D34">
-        <v>0.05928998390315554</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01161376757147888</v>
+      </c>
+      <c r="E34">
+        <v>0.04431786288870128</v>
+      </c>
+      <c r="F34">
+        <v>0.02375145288287062</v>
+      </c>
+      <c r="G34">
+        <v>-0.006366175276988529</v>
+      </c>
+      <c r="H34">
+        <v>-0.01118522940532552</v>
+      </c>
+      <c r="I34">
+        <v>-0.02662896530520273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.00168291019279581</v>
+        <v>0.004966629460370863</v>
       </c>
       <c r="C35">
-        <v>0.002106122907630453</v>
+        <v>-0.02440080650505775</v>
       </c>
       <c r="D35">
-        <v>0.008626818139781061</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01207999146200212</v>
+      </c>
+      <c r="E35">
+        <v>0.04061998138948127</v>
+      </c>
+      <c r="F35">
+        <v>-0.01892264150662683</v>
+      </c>
+      <c r="G35">
+        <v>-0.01171892988909044</v>
+      </c>
+      <c r="H35">
+        <v>-0.05529582397891718</v>
+      </c>
+      <c r="I35">
+        <v>-0.09807855072969898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.005683732498370119</v>
+        <v>0.00962015535537793</v>
       </c>
       <c r="C36">
-        <v>0.02932803148296368</v>
+        <v>-0.04167288377992424</v>
       </c>
       <c r="D36">
-        <v>0.04284298844023</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.004230294765937746</v>
+      </c>
+      <c r="E36">
+        <v>0.06635367870129494</v>
+      </c>
+      <c r="F36">
+        <v>-0.03680623861508909</v>
+      </c>
+      <c r="G36">
+        <v>-0.00525662599470382</v>
+      </c>
+      <c r="H36">
+        <v>-0.03023959607789956</v>
+      </c>
+      <c r="I36">
+        <v>-0.0723431436663393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.004515930100995652</v>
+        <v>0.006857484676899042</v>
       </c>
       <c r="C38">
-        <v>0.01589544413415479</v>
+        <v>-0.04238184674172218</v>
       </c>
       <c r="D38">
-        <v>0.06595945646389711</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03221430789778135</v>
+      </c>
+      <c r="E38">
+        <v>0.07966752609540081</v>
+      </c>
+      <c r="F38">
+        <v>-0.01346169859181035</v>
+      </c>
+      <c r="G38">
+        <v>0.04787429005561333</v>
+      </c>
+      <c r="H38">
+        <v>-0.001560183781963385</v>
+      </c>
+      <c r="I38">
+        <v>-0.08188568781472487</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01528129884164713</v>
+        <v>0.01165618556188745</v>
       </c>
       <c r="C39">
-        <v>0.07647097180099599</v>
+        <v>-0.1057080597505575</v>
       </c>
       <c r="D39">
-        <v>0.1091014648212212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.02558138451248884</v>
+      </c>
+      <c r="E39">
+        <v>0.09754955997178386</v>
+      </c>
+      <c r="F39">
+        <v>0.00720308142589002</v>
+      </c>
+      <c r="G39">
+        <v>-0.009966327165437333</v>
+      </c>
+      <c r="H39">
+        <v>-0.03693953105592144</v>
+      </c>
+      <c r="I39">
+        <v>-0.05417211170816748</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.006592442846101062</v>
+        <v>0.01009830822156314</v>
       </c>
       <c r="C40">
-        <v>0.0193270827418455</v>
+        <v>-0.04806616094838112</v>
       </c>
       <c r="D40">
-        <v>0.09196258161066154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0532605624130753</v>
+      </c>
+      <c r="E40">
+        <v>0.1212222377987352</v>
+      </c>
+      <c r="F40">
+        <v>0.00660215798673317</v>
+      </c>
+      <c r="G40">
+        <v>-0.02329128136590116</v>
+      </c>
+      <c r="H40">
+        <v>-0.03689381695905342</v>
+      </c>
+      <c r="I40">
+        <v>-0.006590950169208251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.008643460938293716</v>
+        <v>0.01726159782982068</v>
       </c>
       <c r="C41">
-        <v>0.02462504868362596</v>
+        <v>-0.0438874791662323</v>
       </c>
       <c r="D41">
-        <v>0.01899791606008716</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01168874227027892</v>
+      </c>
+      <c r="E41">
+        <v>0.02064613814273763</v>
+      </c>
+      <c r="F41">
+        <v>0.01471320423586724</v>
+      </c>
+      <c r="G41">
+        <v>0.007895428148931268</v>
+      </c>
+      <c r="H41">
+        <v>-0.004937588616552148</v>
+      </c>
+      <c r="I41">
+        <v>-0.04317399269637656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.004306467612625771</v>
+        <v>0.008196062714450935</v>
       </c>
       <c r="C43">
-        <v>0.01873209599923798</v>
+        <v>-0.03547931904825553</v>
       </c>
       <c r="D43">
-        <v>0.03683472224394206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01190056293330477</v>
+      </c>
+      <c r="E43">
+        <v>0.04458229238058612</v>
+      </c>
+      <c r="F43">
+        <v>0.002491456026617143</v>
+      </c>
+      <c r="G43">
+        <v>0.01456733105164386</v>
+      </c>
+      <c r="H43">
+        <v>-0.01931956892594562</v>
+      </c>
+      <c r="I43">
+        <v>-0.0545586399381017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01818604984823118</v>
+        <v>0.007590558118428928</v>
       </c>
       <c r="C44">
-        <v>0.05177553980724141</v>
+        <v>-0.07366663508385712</v>
       </c>
       <c r="D44">
-        <v>0.08333446047540431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.02467191449676338</v>
+      </c>
+      <c r="E44">
+        <v>0.1026702110968839</v>
+      </c>
+      <c r="F44">
+        <v>-0.04511603109260431</v>
+      </c>
+      <c r="G44">
+        <v>0.009974108554660977</v>
+      </c>
+      <c r="H44">
+        <v>0.003387972066870709</v>
+      </c>
+      <c r="I44">
+        <v>-0.03092585911726725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.0002643275039221599</v>
+        <v>-0.0007276949453005866</v>
       </c>
       <c r="C46">
-        <v>0.03865571363323311</v>
+        <v>-0.05315425769935063</v>
       </c>
       <c r="D46">
-        <v>0.06851566883945676</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01391134554398787</v>
+      </c>
+      <c r="E46">
+        <v>0.08625925168951443</v>
+      </c>
+      <c r="F46">
+        <v>-0.01879043333471324</v>
+      </c>
+      <c r="G46">
+        <v>-0.009479460397170677</v>
+      </c>
+      <c r="H46">
+        <v>-0.05905976387239178</v>
+      </c>
+      <c r="I46">
+        <v>-0.1102586126825907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.04476170862429932</v>
+        <v>0.02868242505277333</v>
       </c>
       <c r="C47">
-        <v>0.1152960448604441</v>
+        <v>-0.1143754283809162</v>
       </c>
       <c r="D47">
-        <v>0.03818122989832482</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009063680001340316</v>
+      </c>
+      <c r="E47">
+        <v>0.0148792005074593</v>
+      </c>
+      <c r="F47">
+        <v>0.002579959131303354</v>
+      </c>
+      <c r="G47">
+        <v>0.009964319064070649</v>
+      </c>
+      <c r="H47">
+        <v>-0.002959948749727543</v>
+      </c>
+      <c r="I47">
+        <v>-0.08901466171943664</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008242226206183307</v>
+        <v>0.01362238017390835</v>
       </c>
       <c r="C48">
-        <v>0.03248412649019153</v>
+        <v>-0.04762448497187272</v>
       </c>
       <c r="D48">
-        <v>0.04292824412052005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.004931185358343779</v>
+      </c>
+      <c r="E48">
+        <v>0.07495067893660357</v>
+      </c>
+      <c r="F48">
+        <v>-0.04734017667561922</v>
+      </c>
+      <c r="G48">
+        <v>0.001526765924586811</v>
+      </c>
+      <c r="H48">
+        <v>-0.03934779454525285</v>
+      </c>
+      <c r="I48">
+        <v>-0.1182622512451177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002980218844737446</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006658310714692469</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006470382629006858</v>
+      </c>
+      <c r="E49">
+        <v>0.006509905085464886</v>
+      </c>
+      <c r="F49">
+        <v>0.01261171269284442</v>
+      </c>
+      <c r="G49">
+        <v>-0.009104963830650528</v>
+      </c>
+      <c r="H49">
+        <v>-0.0133350945430349</v>
+      </c>
+      <c r="I49">
+        <v>0.01016917650887515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01354084012330099</v>
+        <v>0.01108614202262527</v>
       </c>
       <c r="C50">
-        <v>0.05421718069469409</v>
+        <v>-0.07218440476748875</v>
       </c>
       <c r="D50">
-        <v>0.0441025900768392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.01499870256530739</v>
+      </c>
+      <c r="E50">
+        <v>0.03470308741061304</v>
+      </c>
+      <c r="F50">
+        <v>-0.01504145199492232</v>
+      </c>
+      <c r="G50">
+        <v>0.009885966429231768</v>
+      </c>
+      <c r="H50">
+        <v>0.004271002193326962</v>
+      </c>
+      <c r="I50">
+        <v>-0.05996872220685422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004877772974196741</v>
+        <v>-0.005511875064298705</v>
       </c>
       <c r="C51">
-        <v>0.01836259717130681</v>
+        <v>-0.02981542997176814</v>
       </c>
       <c r="D51">
-        <v>0.06513742404256351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01355050366088414</v>
+      </c>
+      <c r="E51">
+        <v>0.05755931432407922</v>
+      </c>
+      <c r="F51">
+        <v>-0.04949083256624069</v>
+      </c>
+      <c r="G51">
+        <v>-0.01404143734312154</v>
+      </c>
+      <c r="H51">
+        <v>-0.007666589909981631</v>
+      </c>
+      <c r="I51">
+        <v>-0.1044480661416375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.08635342887980213</v>
+        <v>0.06245453342098335</v>
       </c>
       <c r="C53">
-        <v>0.1561109373212231</v>
+        <v>-0.1633400706227651</v>
       </c>
       <c r="D53">
-        <v>0.0007687558503933707</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04152251395432962</v>
+      </c>
+      <c r="E53">
+        <v>-0.0463608547191523</v>
+      </c>
+      <c r="F53">
+        <v>0.02702941461780562</v>
+      </c>
+      <c r="G53">
+        <v>0.01443322937012211</v>
+      </c>
+      <c r="H53">
+        <v>0.03983443756176579</v>
+      </c>
+      <c r="I53">
+        <v>-0.02265354682167379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.00687453152398007</v>
+        <v>0.01274908889308086</v>
       </c>
       <c r="C54">
-        <v>0.03086527981233619</v>
+        <v>-0.05203973350585559</v>
       </c>
       <c r="D54">
-        <v>0.07753776532606915</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.04248733662280802</v>
+      </c>
+      <c r="E54">
+        <v>0.05887007779096925</v>
+      </c>
+      <c r="F54">
+        <v>-0.01216406302054973</v>
+      </c>
+      <c r="G54">
+        <v>0.006302311136811973</v>
+      </c>
+      <c r="H54">
+        <v>-0.0124827984621752</v>
+      </c>
+      <c r="I54">
+        <v>-0.09071528713039557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.06053312613717539</v>
+        <v>0.03884186868949633</v>
       </c>
       <c r="C55">
-        <v>0.1121766625674023</v>
+        <v>-0.1150398082658823</v>
       </c>
       <c r="D55">
-        <v>-0.004149469643667679</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05035658148948359</v>
+      </c>
+      <c r="E55">
+        <v>-0.02366075131867517</v>
+      </c>
+      <c r="F55">
+        <v>0.0329582913481739</v>
+      </c>
+      <c r="G55">
+        <v>0.002329173674444168</v>
+      </c>
+      <c r="H55">
+        <v>0.04239820841915373</v>
+      </c>
+      <c r="I55">
+        <v>-0.02833205812330881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.09464216559076986</v>
+        <v>0.05978562523819898</v>
       </c>
       <c r="C56">
-        <v>0.1687216661252093</v>
+        <v>-0.183263461710125</v>
       </c>
       <c r="D56">
-        <v>0.02312458337154799</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05269907377435282</v>
+      </c>
+      <c r="E56">
+        <v>-0.03718970919091336</v>
+      </c>
+      <c r="F56">
+        <v>0.06335304399195203</v>
+      </c>
+      <c r="G56">
+        <v>0.01389889631273634</v>
+      </c>
+      <c r="H56">
+        <v>0.1231438411242235</v>
+      </c>
+      <c r="I56">
+        <v>-0.02428380005223507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.02031107065092741</v>
+        <v>0.01061488473991875</v>
       </c>
       <c r="C58">
-        <v>0.0692209442364916</v>
+        <v>-0.1156631074489883</v>
       </c>
       <c r="D58">
-        <v>0.2184827688709763</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.1307260215933191</v>
+      </c>
+      <c r="E58">
+        <v>0.165213281113439</v>
+      </c>
+      <c r="F58">
+        <v>-0.2668449704666058</v>
+      </c>
+      <c r="G58">
+        <v>0.06205087604756374</v>
+      </c>
+      <c r="H58">
+        <v>0.1278899056300646</v>
+      </c>
+      <c r="I58">
+        <v>0.04937822792913795</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2358858900783583</v>
+        <v>0.2677000032398011</v>
       </c>
       <c r="C59">
-        <v>-0.08085357488132612</v>
+        <v>0.05290419629267845</v>
       </c>
       <c r="D59">
-        <v>0.04903782420228372</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02007296602769645</v>
+      </c>
+      <c r="E59">
+        <v>0.0281127813103596</v>
+      </c>
+      <c r="F59">
+        <v>-0.02912139597786882</v>
+      </c>
+      <c r="G59">
+        <v>-0.01778967108571341</v>
+      </c>
+      <c r="H59">
+        <v>-0.0008170712550048882</v>
+      </c>
+      <c r="I59">
+        <v>0.03201164452605054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1499352169515219</v>
+        <v>0.1522081902386211</v>
       </c>
       <c r="C60">
-        <v>0.1223657558227449</v>
+        <v>-0.1555873945358626</v>
       </c>
       <c r="D60">
-        <v>0.08747909771318753</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02484269798806019</v>
+      </c>
+      <c r="E60">
+        <v>0.08349765821541144</v>
+      </c>
+      <c r="F60">
+        <v>0.2245141548848159</v>
+      </c>
+      <c r="G60">
+        <v>-0.1013829104632662</v>
+      </c>
+      <c r="H60">
+        <v>-0.1766608263265833</v>
+      </c>
+      <c r="I60">
+        <v>0.2823204732234309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02075338921099368</v>
+        <v>0.01796354635836799</v>
       </c>
       <c r="C61">
-        <v>0.06404847220570656</v>
+        <v>-0.09111447657953534</v>
       </c>
       <c r="D61">
-        <v>0.07404006418434776</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.01623154535678477</v>
+      </c>
+      <c r="E61">
+        <v>0.07698972357790433</v>
+      </c>
+      <c r="F61">
+        <v>0.01976857663777508</v>
+      </c>
+      <c r="G61">
+        <v>0.002624689369388325</v>
+      </c>
+      <c r="H61">
+        <v>-0.02879624674143436</v>
+      </c>
+      <c r="I61">
+        <v>-0.06468431978382422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002741291837886066</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001094520959581983</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-5.681234305456321e-05</v>
+      </c>
+      <c r="E62">
+        <v>-0.0006774555543629735</v>
+      </c>
+      <c r="F62">
+        <v>-0.002360102196177078</v>
+      </c>
+      <c r="G62">
+        <v>-0.0001678696857582818</v>
+      </c>
+      <c r="H62">
+        <v>0.0001585104552138973</v>
+      </c>
+      <c r="I62">
+        <v>-0.003313504911197312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.003120713043014444</v>
+        <v>0.01712783563187114</v>
       </c>
       <c r="C63">
-        <v>0.04601348338425244</v>
+        <v>-0.0637169519537731</v>
       </c>
       <c r="D63">
-        <v>0.06170675212540493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.004736773531587699</v>
+      </c>
+      <c r="E63">
+        <v>0.07557314164882045</v>
+      </c>
+      <c r="F63">
+        <v>-0.004285443698724098</v>
+      </c>
+      <c r="G63">
+        <v>-0.002770707031108884</v>
+      </c>
+      <c r="H63">
+        <v>-0.02944156631734922</v>
+      </c>
+      <c r="I63">
+        <v>-0.07721580142643421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0316314018631477</v>
+        <v>0.01703834154817021</v>
       </c>
       <c r="C64">
-        <v>0.1079811069827911</v>
+        <v>-0.1065114750069054</v>
       </c>
       <c r="D64">
-        <v>0.02172470040081378</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01017980709074842</v>
+      </c>
+      <c r="E64">
+        <v>0.02507442633258503</v>
+      </c>
+      <c r="F64">
+        <v>-0.01616549543521651</v>
+      </c>
+      <c r="G64">
+        <v>0.02043020572620361</v>
+      </c>
+      <c r="H64">
+        <v>-0.06064496140532824</v>
+      </c>
+      <c r="I64">
+        <v>0.01647436575421323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01769303952052114</v>
+        <v>0.02303004509243932</v>
       </c>
       <c r="C65">
-        <v>0.04000359470462061</v>
+        <v>-0.06581378131083354</v>
       </c>
       <c r="D65">
-        <v>0.08725377551907665</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05430320152331679</v>
+      </c>
+      <c r="E65">
+        <v>0.09721520041705785</v>
+      </c>
+      <c r="F65">
+        <v>0.002511618273632985</v>
+      </c>
+      <c r="G65">
+        <v>0.003557588207447819</v>
+      </c>
+      <c r="H65">
+        <v>-0.08649658855121121</v>
+      </c>
+      <c r="I65">
+        <v>0.02361114039013812</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02122214783232905</v>
+        <v>0.01308439402056157</v>
       </c>
       <c r="C66">
-        <v>0.09504910744705775</v>
+        <v>-0.1309724229095688</v>
       </c>
       <c r="D66">
-        <v>0.1429277015761882</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.05624472906605856</v>
+      </c>
+      <c r="E66">
+        <v>0.108114107571842</v>
+      </c>
+      <c r="F66">
+        <v>-0.004944292731857154</v>
+      </c>
+      <c r="G66">
+        <v>-0.001589803954183767</v>
+      </c>
+      <c r="H66">
+        <v>-0.007009264832105315</v>
+      </c>
+      <c r="I66">
+        <v>-0.04950975429687522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01779221779432877</v>
+        <v>0.01779931005060267</v>
       </c>
       <c r="C67">
-        <v>0.01786116038327728</v>
+        <v>-0.0415442357714727</v>
       </c>
       <c r="D67">
-        <v>0.03276289869094339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.008298237663844618</v>
+      </c>
+      <c r="E67">
+        <v>0.06338007682851655</v>
+      </c>
+      <c r="F67">
+        <v>0.02835418308388889</v>
+      </c>
+      <c r="G67">
+        <v>0.04103828014082702</v>
+      </c>
+      <c r="H67">
+        <v>-0.01597879093377286</v>
+      </c>
+      <c r="I67">
+        <v>-0.06394512610519658</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2329722101491208</v>
+        <v>0.2780419088552193</v>
       </c>
       <c r="C68">
-        <v>-0.09726882176443388</v>
+        <v>0.06708711829268815</v>
       </c>
       <c r="D68">
-        <v>0.017796868149682</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0402032058523208</v>
+      </c>
+      <c r="E68">
+        <v>0.01563934568791608</v>
+      </c>
+      <c r="F68">
+        <v>-0.05687682667217674</v>
+      </c>
+      <c r="G68">
+        <v>0.01380319151018117</v>
+      </c>
+      <c r="H68">
+        <v>0.03055771533199579</v>
+      </c>
+      <c r="I68">
+        <v>0.02259399708198117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.04160816111555048</v>
+        <v>0.01728211834534478</v>
       </c>
       <c r="C69">
-        <v>0.1192690286568926</v>
+        <v>-0.1035621283110642</v>
       </c>
       <c r="D69">
-        <v>0.05104527852682463</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02167213218952838</v>
+      </c>
+      <c r="E69">
+        <v>0.02655244469190764</v>
+      </c>
+      <c r="F69">
+        <v>0.0167475770006301</v>
+      </c>
+      <c r="G69">
+        <v>0.005705385414020324</v>
+      </c>
+      <c r="H69">
+        <v>0.004592898437618994</v>
+      </c>
+      <c r="I69">
+        <v>-0.05021133670823573</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.248366018077277</v>
+        <v>0.2669915109413932</v>
       </c>
       <c r="C71">
-        <v>-0.1174984200564611</v>
+        <v>0.08230545933344315</v>
       </c>
       <c r="D71">
-        <v>0.01864933344881984</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01694078736176171</v>
+      </c>
+      <c r="E71">
+        <v>0.02035609535700706</v>
+      </c>
+      <c r="F71">
+        <v>-0.02600414911936039</v>
+      </c>
+      <c r="G71">
+        <v>0.02961308835833818</v>
+      </c>
+      <c r="H71">
+        <v>0.005178189087314549</v>
+      </c>
+      <c r="I71">
+        <v>-0.0672925254727387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.082115741499034</v>
+        <v>0.06311376454949334</v>
       </c>
       <c r="C72">
-        <v>0.1174409426425807</v>
+        <v>-0.1369435039382168</v>
       </c>
       <c r="D72">
-        <v>0.09726501124689976</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01383453041827509</v>
+      </c>
+      <c r="E72">
+        <v>0.05492307516938197</v>
+      </c>
+      <c r="F72">
+        <v>0.04033757147304967</v>
+      </c>
+      <c r="G72">
+        <v>-0.004345580807556105</v>
+      </c>
+      <c r="H72">
+        <v>-0.01783589654367251</v>
+      </c>
+      <c r="I72">
+        <v>0.02597028517693508</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1206972130372543</v>
+        <v>0.1447062676342762</v>
       </c>
       <c r="C73">
-        <v>0.09124972182602831</v>
+        <v>-0.1575571724819543</v>
       </c>
       <c r="D73">
-        <v>0.1149148588134473</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.03811181088245695</v>
+      </c>
+      <c r="E73">
+        <v>0.1670884356227855</v>
+      </c>
+      <c r="F73">
+        <v>0.313735180204712</v>
+      </c>
+      <c r="G73">
+        <v>-0.1241276308926308</v>
+      </c>
+      <c r="H73">
+        <v>-0.3067695115315616</v>
+      </c>
+      <c r="I73">
+        <v>0.2864245540124457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.07327547813943887</v>
+        <v>0.04979047482591338</v>
       </c>
       <c r="C74">
-        <v>0.1371265477842936</v>
+        <v>-0.1365604355092927</v>
       </c>
       <c r="D74">
-        <v>-0.04588483936499583</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.06281083003358491</v>
+      </c>
+      <c r="E74">
+        <v>-0.04408440696237886</v>
+      </c>
+      <c r="F74">
+        <v>0.02017024616971663</v>
+      </c>
+      <c r="G74">
+        <v>0.01550578127378757</v>
+      </c>
+      <c r="H74">
+        <v>0.02799135183907979</v>
+      </c>
+      <c r="I74">
+        <v>-0.02339018918002787</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1739196485659993</v>
+        <v>0.09774290352334221</v>
       </c>
       <c r="C75">
-        <v>0.2272270332170767</v>
+        <v>-0.2357879858619444</v>
       </c>
       <c r="D75">
-        <v>-0.02276771157726957</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1020401066519901</v>
+      </c>
+      <c r="E75">
+        <v>-0.1081539227549862</v>
+      </c>
+      <c r="F75">
+        <v>0.1603300093129278</v>
+      </c>
+      <c r="G75">
+        <v>0.1165259667469733</v>
+      </c>
+      <c r="H75">
+        <v>0.2278152027788089</v>
+      </c>
+      <c r="I75">
+        <v>-0.0377459002290149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.09207068275063553</v>
+        <v>0.05585878629733405</v>
       </c>
       <c r="C76">
-        <v>0.1652558539306571</v>
+        <v>-0.1737651226039551</v>
       </c>
       <c r="D76">
-        <v>0.01252417237520625</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06357879154559416</v>
+      </c>
+      <c r="E76">
+        <v>-0.02824469387201163</v>
+      </c>
+      <c r="F76">
+        <v>0.09554310204790652</v>
+      </c>
+      <c r="G76">
+        <v>0.009753006106295542</v>
+      </c>
+      <c r="H76">
+        <v>0.07960222819250355</v>
+      </c>
+      <c r="I76">
+        <v>-0.05474522244141826</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.03338307065673037</v>
+        <v>0.02578357441884055</v>
       </c>
       <c r="C77">
-        <v>0.09299685192988839</v>
+        <v>-0.15386801444453</v>
       </c>
       <c r="D77">
-        <v>0.3070314967229902</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.8389780136648241</v>
+      </c>
+      <c r="E77">
+        <v>-0.4917717855392752</v>
+      </c>
+      <c r="F77">
+        <v>0.075503754477956</v>
+      </c>
+      <c r="G77">
+        <v>0.02647733396686476</v>
+      </c>
+      <c r="H77">
+        <v>-0.05895971289957313</v>
+      </c>
+      <c r="I77">
+        <v>-0.0644307808932863</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03042780961293008</v>
+        <v>0.02702355417467456</v>
       </c>
       <c r="C78">
-        <v>0.08934093693565823</v>
+        <v>-0.1038589489735168</v>
       </c>
       <c r="D78">
-        <v>0.1249505141276868</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0006884129923195567</v>
+      </c>
+      <c r="E78">
+        <v>0.1000890762096057</v>
+      </c>
+      <c r="F78">
+        <v>-0.05913112848353938</v>
+      </c>
+      <c r="G78">
+        <v>-0.03150383016571652</v>
+      </c>
+      <c r="H78">
+        <v>0.08046745240959229</v>
+      </c>
+      <c r="I78">
+        <v>-0.1208826226532982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.0931615473060577</v>
+        <v>0.05726781691095595</v>
       </c>
       <c r="C79">
-        <v>0.4073457300246962</v>
+        <v>-0.2977495147767693</v>
       </c>
       <c r="D79">
-        <v>-0.619121284136787</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.2934768238798359</v>
+      </c>
+      <c r="E79">
+        <v>-0.456436223053881</v>
+      </c>
+      <c r="F79">
+        <v>-0.5539305401010797</v>
+      </c>
+      <c r="G79">
+        <v>-0.05532060744473014</v>
+      </c>
+      <c r="H79">
+        <v>-0.464415008813933</v>
+      </c>
+      <c r="I79">
+        <v>0.1353537643009972</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.001433118098691634</v>
+        <v>0.00977020107533373</v>
       </c>
       <c r="C80">
-        <v>0.059943559405714</v>
+        <v>-0.05829060335235762</v>
       </c>
       <c r="D80">
-        <v>0.04295712990250007</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.005507396551602949</v>
+      </c>
+      <c r="E80">
+        <v>0.06818049384955815</v>
+      </c>
+      <c r="F80">
+        <v>0.02852293744101085</v>
+      </c>
+      <c r="G80">
+        <v>-0.06222874510325892</v>
+      </c>
+      <c r="H80">
+        <v>-0.02136861626490992</v>
+      </c>
+      <c r="I80">
+        <v>0.02924067223502462</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.07979687736209873</v>
+        <v>0.035919725018047</v>
       </c>
       <c r="C81">
-        <v>0.1513015973195225</v>
+        <v>-0.1516881190150546</v>
       </c>
       <c r="D81">
-        <v>-0.05361627493432478</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07133410143799739</v>
+      </c>
+      <c r="E81">
+        <v>-0.06032333211106462</v>
+      </c>
+      <c r="F81">
+        <v>0.01877861217225181</v>
+      </c>
+      <c r="G81">
+        <v>0.02238055564069649</v>
+      </c>
+      <c r="H81">
+        <v>0.0736780968955616</v>
+      </c>
+      <c r="I81">
+        <v>-0.06477393764472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1393784944798786</v>
+        <v>0.07640506148573363</v>
       </c>
       <c r="C82">
-        <v>0.2173634745703428</v>
+        <v>-0.2006802979454652</v>
       </c>
       <c r="D82">
-        <v>-0.02588364603659454</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.100780739439059</v>
+      </c>
+      <c r="E82">
+        <v>-0.0701190668755013</v>
+      </c>
+      <c r="F82">
+        <v>0.09006077262848705</v>
+      </c>
+      <c r="G82">
+        <v>0.0075867142594566</v>
+      </c>
+      <c r="H82">
+        <v>0.125177397192227</v>
+      </c>
+      <c r="I82">
+        <v>-0.08693876800977712</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.004247440194410786</v>
+        <v>0.0038423020332983</v>
       </c>
       <c r="C83">
-        <v>0.05674300602509585</v>
+        <v>-0.01966334800171764</v>
       </c>
       <c r="D83">
-        <v>0.04950671755151922</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03864913541654521</v>
+      </c>
+      <c r="E83">
+        <v>-0.04457939457576868</v>
+      </c>
+      <c r="F83">
+        <v>-0.09055704649205031</v>
+      </c>
+      <c r="G83">
+        <v>-0.9089678568680903</v>
+      </c>
+      <c r="H83">
+        <v>0.267484344371379</v>
+      </c>
+      <c r="I83">
+        <v>0.04115681478612368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.002077367540482662</v>
+        <v>-0.002592070495378466</v>
       </c>
       <c r="C84">
-        <v>0.01408194124948169</v>
+        <v>-0.02841830102925746</v>
       </c>
       <c r="D84">
-        <v>0.0395794571007794</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01349045455566613</v>
+      </c>
+      <c r="E84">
+        <v>0.05475864279084137</v>
+      </c>
+      <c r="F84">
+        <v>-0.06027825263784399</v>
+      </c>
+      <c r="G84">
+        <v>0.05225563038946203</v>
+      </c>
+      <c r="H84">
+        <v>0.03410929285020023</v>
+      </c>
+      <c r="I84">
+        <v>-0.06742509992652737</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.0885384455507056</v>
+        <v>0.04986903050567396</v>
       </c>
       <c r="C85">
-        <v>0.1846733113435362</v>
+        <v>-0.1747412473903208</v>
       </c>
       <c r="D85">
-        <v>-0.07733495463152511</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1179331736043165</v>
+      </c>
+      <c r="E85">
+        <v>-0.08975220487237336</v>
+      </c>
+      <c r="F85">
+        <v>0.02866931619023154</v>
+      </c>
+      <c r="G85">
+        <v>0.01670897413213148</v>
+      </c>
+      <c r="H85">
+        <v>0.07400847859406651</v>
+      </c>
+      <c r="I85">
+        <v>-0.03051755412654074</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02689875093081164</v>
+        <v>0.01591174044167192</v>
       </c>
       <c r="C86">
-        <v>0.03262325501008297</v>
+        <v>-0.06108932733798254</v>
       </c>
       <c r="D86">
-        <v>0.09545799024503245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04876488577909342</v>
+      </c>
+      <c r="E86">
+        <v>0.04232812208270462</v>
+      </c>
+      <c r="F86">
+        <v>-0.07331320709831567</v>
+      </c>
+      <c r="G86">
+        <v>0.03768660100912279</v>
+      </c>
+      <c r="H86">
+        <v>0.02724537798764492</v>
+      </c>
+      <c r="I86">
+        <v>-0.06378949297531962</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02665521822931182</v>
+        <v>0.01591690061305194</v>
       </c>
       <c r="C87">
-        <v>0.07121906119671879</v>
+        <v>-0.09302641971146951</v>
       </c>
       <c r="D87">
-        <v>0.1415390433255966</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07095151018882973</v>
+      </c>
+      <c r="E87">
+        <v>0.09708711173146257</v>
+      </c>
+      <c r="F87">
+        <v>-0.08370987101602813</v>
+      </c>
+      <c r="G87">
+        <v>0.01546045521827185</v>
+      </c>
+      <c r="H87">
+        <v>0.04463326704345046</v>
+      </c>
+      <c r="I87">
+        <v>-0.04809150116985242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03963576043460985</v>
+        <v>0.03778888097746103</v>
       </c>
       <c r="C88">
-        <v>0.0759554984914734</v>
+        <v>-0.08398519489444452</v>
       </c>
       <c r="D88">
-        <v>-0.0007675186006608725</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01124654849165938</v>
+      </c>
+      <c r="E88">
+        <v>0.01572506590425195</v>
+      </c>
+      <c r="F88">
+        <v>0.02774851251980323</v>
+      </c>
+      <c r="G88">
+        <v>0.006764261133412251</v>
+      </c>
+      <c r="H88">
+        <v>-0.01252202952230344</v>
+      </c>
+      <c r="I88">
+        <v>-0.01939328710170736</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.4123738918077013</v>
+        <v>0.4076569766654249</v>
       </c>
       <c r="C89">
-        <v>-0.2219464269734632</v>
+        <v>0.1527948698194333</v>
       </c>
       <c r="D89">
-        <v>-0.02592548147955708</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02339797218165715</v>
+      </c>
+      <c r="E89">
+        <v>0.009996869072494282</v>
+      </c>
+      <c r="F89">
+        <v>-0.1063354683510363</v>
+      </c>
+      <c r="G89">
+        <v>-0.0890148342042633</v>
+      </c>
+      <c r="H89">
+        <v>0.07657871621007813</v>
+      </c>
+      <c r="I89">
+        <v>-0.0439903325142458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.3012455595972792</v>
+        <v>0.3193071419614995</v>
       </c>
       <c r="C90">
-        <v>-0.1546066764751081</v>
+        <v>0.09903841016358533</v>
       </c>
       <c r="D90">
-        <v>0.06445982864231282</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03417701400144433</v>
+      </c>
+      <c r="E90">
+        <v>0.04397716289027773</v>
+      </c>
+      <c r="F90">
+        <v>-0.01731293699904197</v>
+      </c>
+      <c r="G90">
+        <v>0.01087393185433256</v>
+      </c>
+      <c r="H90">
+        <v>0.02720239342205593</v>
+      </c>
+      <c r="I90">
+        <v>0.002341396435643616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1035808870482939</v>
+        <v>0.06585485851043556</v>
       </c>
       <c r="C91">
-        <v>0.2118188871238759</v>
+        <v>-0.183780755127396</v>
       </c>
       <c r="D91">
-        <v>-0.08274334765760051</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08581095714885051</v>
+      </c>
+      <c r="E91">
+        <v>-0.1170117329848779</v>
+      </c>
+      <c r="F91">
+        <v>0.01341147188202317</v>
+      </c>
+      <c r="G91">
+        <v>-0.02009208474165599</v>
+      </c>
+      <c r="H91">
+        <v>0.05063099043424796</v>
+      </c>
+      <c r="I91">
+        <v>-0.01724153685539809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3166623194362926</v>
+        <v>0.3426200009758568</v>
       </c>
       <c r="C92">
-        <v>-0.1693589790697105</v>
+        <v>0.1290343204070732</v>
       </c>
       <c r="D92">
-        <v>-0.02376541385954736</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02798247438075031</v>
+      </c>
+      <c r="E92">
+        <v>-0.01924141394810149</v>
+      </c>
+      <c r="F92">
+        <v>-0.07264531096993242</v>
+      </c>
+      <c r="G92">
+        <v>0.09786127404877978</v>
+      </c>
+      <c r="H92">
+        <v>-0.03132432384093725</v>
+      </c>
+      <c r="I92">
+        <v>-0.02686333255895872</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3137212031781101</v>
+        <v>0.3221591379868337</v>
       </c>
       <c r="C93">
-        <v>-0.1602756077569772</v>
+        <v>0.1208053087731504</v>
       </c>
       <c r="D93">
-        <v>-0.04726631634717967</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02550186859180642</v>
+      </c>
+      <c r="E93">
+        <v>-0.01974912885134056</v>
+      </c>
+      <c r="F93">
+        <v>-0.03625421776797821</v>
+      </c>
+      <c r="G93">
+        <v>0.01927251080260927</v>
+      </c>
+      <c r="H93">
+        <v>0.0005600982451191749</v>
+      </c>
+      <c r="I93">
+        <v>-0.04195630352677889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.179199843347272</v>
+        <v>0.1173528197811031</v>
       </c>
       <c r="C94">
-        <v>0.2553777139974662</v>
+        <v>-0.2523164665324617</v>
       </c>
       <c r="D94">
-        <v>-0.08072376192735635</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.1560747025017581</v>
+      </c>
+      <c r="E94">
+        <v>-0.2047303694784928</v>
+      </c>
+      <c r="F94">
+        <v>0.1933301795723242</v>
+      </c>
+      <c r="G94">
+        <v>0.08478125388161954</v>
+      </c>
+      <c r="H94">
+        <v>0.4241081114667689</v>
+      </c>
+      <c r="I94">
+        <v>0.07206273708013171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.04070869434236708</v>
+        <v>0.03825413427235103</v>
       </c>
       <c r="C95">
-        <v>0.04188714649990533</v>
+        <v>-0.09083010584348331</v>
       </c>
       <c r="D95">
-        <v>0.06133940857197901</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.04590466207007927</v>
+      </c>
+      <c r="E95">
+        <v>0.0748784507245549</v>
+      </c>
+      <c r="F95">
+        <v>0.1013411835976324</v>
+      </c>
+      <c r="G95">
+        <v>0.03759558973780217</v>
+      </c>
+      <c r="H95">
+        <v>-0.04823787063963184</v>
+      </c>
+      <c r="I95">
+        <v>-0.09181217892544929</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002197677223054981</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.002404625478834964</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01561534731265548</v>
+      </c>
+      <c r="E97">
+        <v>-0.001671404351355919</v>
+      </c>
+      <c r="F97">
+        <v>0.009301146283392077</v>
+      </c>
+      <c r="G97">
+        <v>0.01868426196048349</v>
+      </c>
+      <c r="H97">
+        <v>0.001162145593381016</v>
+      </c>
+      <c r="I97">
+        <v>0.0001246040399340078</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1075831049466661</v>
+        <v>0.1296345829760327</v>
       </c>
       <c r="C98">
-        <v>0.09440870914115325</v>
+        <v>-0.1426277309675219</v>
       </c>
       <c r="D98">
-        <v>0.1153741677947029</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01369958741541652</v>
+      </c>
+      <c r="E98">
+        <v>0.1400923116247383</v>
+      </c>
+      <c r="F98">
+        <v>0.242840689983768</v>
+      </c>
+      <c r="G98">
+        <v>-0.07720237784316766</v>
+      </c>
+      <c r="H98">
+        <v>-0.2637214779449176</v>
+      </c>
+      <c r="I98">
+        <v>0.3226216300464492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.005657004901605545</v>
+        <v>0.004821415999998517</v>
       </c>
       <c r="C101">
-        <v>0.02881006677721337</v>
+        <v>-0.05738854948413126</v>
       </c>
       <c r="D101">
-        <v>0.06867898673710379</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03160158633877075</v>
+      </c>
+      <c r="E101">
+        <v>0.1117132309225126</v>
+      </c>
+      <c r="F101">
+        <v>-0.02424528955729968</v>
+      </c>
+      <c r="G101">
+        <v>-0.05398272922524826</v>
+      </c>
+      <c r="H101">
+        <v>-0.09485706353069923</v>
+      </c>
+      <c r="I101">
+        <v>-0.1709198385481511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.06324737110369763</v>
+        <v>0.02345767057796666</v>
       </c>
       <c r="C102">
-        <v>0.123854174117672</v>
+        <v>-0.08827305200941457</v>
       </c>
       <c r="D102">
-        <v>0.006264834912638982</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04277091859513751</v>
+      </c>
+      <c r="E102">
+        <v>-0.04650788153669997</v>
+      </c>
+      <c r="F102">
+        <v>0.04117877357481443</v>
+      </c>
+      <c r="G102">
+        <v>-0.008871786276883542</v>
+      </c>
+      <c r="H102">
+        <v>0.06639008943893833</v>
+      </c>
+      <c r="I102">
+        <v>-0.01708303492150587</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
